--- a/simulation_data/iterative_algorithm/i_error_level_9_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_9_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.45986289198568</v>
+        <v>88.60072379250869</v>
       </c>
       <c r="D2" t="n">
-        <v>10.26982116106201</v>
+        <v>8.277159705558853</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.94161060238433</v>
+        <v>89.60758496160354</v>
       </c>
       <c r="D3" t="n">
-        <v>9.49657399629756</v>
+        <v>9.679719952566364</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.33612284478998</v>
+        <v>86.83501951915876</v>
       </c>
       <c r="D4" t="n">
-        <v>10.59333226116567</v>
+        <v>7.907104438769104</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.72186189627783</v>
+        <v>86.3036563711803</v>
       </c>
       <c r="D5" t="n">
-        <v>10.02855087099888</v>
+        <v>8.46912470052813</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>83.84913629133126</v>
+        <v>86.20511927196794</v>
       </c>
       <c r="D6" t="n">
-        <v>9.245289867594343</v>
+        <v>10.09767565700179</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.80387993728337</v>
+        <v>85.65015371064342</v>
       </c>
       <c r="D7" t="n">
-        <v>9.791862670988712</v>
+        <v>9.427216399363045</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.32558754412827</v>
+        <v>84.04835666047288</v>
       </c>
       <c r="D8" t="n">
-        <v>9.95204278930346</v>
+        <v>8.842852270172537</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.49000425305827</v>
+        <v>84.41098978072647</v>
       </c>
       <c r="D9" t="n">
-        <v>10.26331326860801</v>
+        <v>9.354519437282432</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.55815273690588</v>
+        <v>82.32804190393685</v>
       </c>
       <c r="D10" t="n">
-        <v>9.351381187615585</v>
+        <v>9.111771160471159</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.34042440141914</v>
+        <v>82.10914554577526</v>
       </c>
       <c r="D11" t="n">
-        <v>10.72857422295538</v>
+        <v>8.033155168263669</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.95333807411559</v>
+        <v>78.57506743650315</v>
       </c>
       <c r="D12" t="n">
-        <v>10.33006561246068</v>
+        <v>9.67454137428591</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.02639293950351</v>
+        <v>78.88312628284289</v>
       </c>
       <c r="D13" t="n">
-        <v>11.27225504550995</v>
+        <v>10.04902436579369</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.33006620974459</v>
+        <v>77.39441021397764</v>
       </c>
       <c r="D14" t="n">
-        <v>11.15304339454232</v>
+        <v>9.861528935273896</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.92594746412431</v>
+        <v>76.32644571260715</v>
       </c>
       <c r="D15" t="n">
-        <v>10.34118319949265</v>
+        <v>10.56181918930725</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.19947001328043</v>
+        <v>76.88716733494319</v>
       </c>
       <c r="D16" t="n">
-        <v>10.64542529442105</v>
+        <v>9.09539606287157</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.16493513634437</v>
+        <v>76.83358190582989</v>
       </c>
       <c r="D17" t="n">
-        <v>10.40595752702943</v>
+        <v>9.647320984063201</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>72.61585150062932</v>
+        <v>73.52255251252362</v>
       </c>
       <c r="D18" t="n">
-        <v>10.35199988231693</v>
+        <v>10.53931661708482</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.49399188466276</v>
+        <v>73.32266559860734</v>
       </c>
       <c r="D19" t="n">
-        <v>9.636243636112223</v>
+        <v>10.1661650981858</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.96488210035572</v>
+        <v>72.14275902383102</v>
       </c>
       <c r="D20" t="n">
-        <v>10.08618727131703</v>
+        <v>9.994076779167449</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.52047015205351</v>
+        <v>70.52606890341286</v>
       </c>
       <c r="D21" t="n">
-        <v>9.226140698417826</v>
+        <v>9.26786796946087</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.74098108891451</v>
+        <v>69.60668828275121</v>
       </c>
       <c r="D22" t="n">
-        <v>10.38034235350001</v>
+        <v>8.826463744719456</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.63697626984941</v>
+        <v>71.05590777348176</v>
       </c>
       <c r="D23" t="n">
-        <v>9.70484834057034</v>
+        <v>10.39621212842854</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.4009717018472</v>
+        <v>67.2071292834019</v>
       </c>
       <c r="D24" t="n">
-        <v>10.71331863832326</v>
+        <v>8.653809089743442</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.10852903296433</v>
+        <v>66.38550094021804</v>
       </c>
       <c r="D25" t="n">
-        <v>10.92818286514942</v>
+        <v>9.24625756111041</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.58874047430268</v>
+        <v>64.38111390590994</v>
       </c>
       <c r="D26" t="n">
-        <v>8.931841835314259</v>
+        <v>8.71111124790462</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.86826276608029</v>
+        <v>64.13820536045134</v>
       </c>
       <c r="D27" t="n">
-        <v>9.377113360522781</v>
+        <v>8.480080263064304</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.49108200023596</v>
+        <v>63.59741607359796</v>
       </c>
       <c r="D28" t="n">
-        <v>9.652778639452782</v>
+        <v>8.850696353185864</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.83093536794055</v>
+        <v>63.51692336619048</v>
       </c>
       <c r="D29" t="n">
-        <v>8.65166008363421</v>
+        <v>10.02499020927528</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>59.9647391482093</v>
+        <v>63.46957083428467</v>
       </c>
       <c r="D30" t="n">
-        <v>12.06847917182746</v>
+        <v>10.15299074556993</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.38148339416287</v>
+        <v>59.79571537158699</v>
       </c>
       <c r="D31" t="n">
-        <v>9.274537864422644</v>
+        <v>9.459151413855064</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.725769012973</v>
+        <v>60.20150932766009</v>
       </c>
       <c r="D32" t="n">
-        <v>10.41746813087857</v>
+        <v>10.19922730105989</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.54648668920138</v>
+        <v>58.21655049959554</v>
       </c>
       <c r="D33" t="n">
-        <v>8.989767143720314</v>
+        <v>9.379083418676574</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.97809126308741</v>
+        <v>59.60755297212332</v>
       </c>
       <c r="D34" t="n">
-        <v>9.585388882560245</v>
+        <v>10.16864632065536</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.42961125906005</v>
+        <v>57.66312206538539</v>
       </c>
       <c r="D35" t="n">
-        <v>9.712302513377193</v>
+        <v>10.31009386323637</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.48013050151636</v>
+        <v>56.3222342945494</v>
       </c>
       <c r="D36" t="n">
-        <v>10.01632062479603</v>
+        <v>9.27567963915738</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.07008679269345</v>
+        <v>54.63220217040017</v>
       </c>
       <c r="D37" t="n">
-        <v>9.448812676276853</v>
+        <v>9.064751919182326</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.98619612400905</v>
+        <v>53.65609790398974</v>
       </c>
       <c r="D38" t="n">
-        <v>10.72931019858934</v>
+        <v>9.074441438688659</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.64515829000057</v>
+        <v>52.08359063975067</v>
       </c>
       <c r="D39" t="n">
-        <v>10.3684377437248</v>
+        <v>10.40833107647036</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.18846437147643</v>
+        <v>49.6372873565539</v>
       </c>
       <c r="D40" t="n">
-        <v>10.12935461783303</v>
+        <v>9.867767216069353</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.78936371351912</v>
+        <v>51.04997680264803</v>
       </c>
       <c r="D41" t="n">
-        <v>10.50784470734403</v>
+        <v>10.06734626793066</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.04215715713966</v>
+        <v>49.31876028045981</v>
       </c>
       <c r="D42" t="n">
-        <v>11.30916042633301</v>
+        <v>10.38165770787755</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.33229340102089</v>
+        <v>50.88877302392059</v>
       </c>
       <c r="D43" t="n">
-        <v>10.26549057940068</v>
+        <v>10.38632284021689</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.82138967495724</v>
+        <v>48.25708097571057</v>
       </c>
       <c r="D44" t="n">
-        <v>9.596157264263672</v>
+        <v>10.445089508689</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.68487598106974</v>
+        <v>47.30722303809557</v>
       </c>
       <c r="D45" t="n">
-        <v>10.19023447055755</v>
+        <v>10.76953600625425</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.28821721280246</v>
+        <v>46.51249327296777</v>
       </c>
       <c r="D46" t="n">
-        <v>9.254512236864546</v>
+        <v>9.059767686952181</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.50574117517041</v>
+        <v>42.77698058428371</v>
       </c>
       <c r="D47" t="n">
-        <v>10.89360633985709</v>
+        <v>11.05032238104755</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.13962428391908</v>
+        <v>41.83655661511855</v>
       </c>
       <c r="D48" t="n">
-        <v>10.53141486492297</v>
+        <v>10.68924282140038</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.52262788213572</v>
+        <v>42.75918516468865</v>
       </c>
       <c r="D49" t="n">
-        <v>9.454547063999946</v>
+        <v>9.648509351679172</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.67017102140082</v>
+        <v>41.50183939803023</v>
       </c>
       <c r="D50" t="n">
-        <v>10.31978923745027</v>
+        <v>10.19262859066811</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.98797769355756</v>
+        <v>40.76123753278372</v>
       </c>
       <c r="D51" t="n">
-        <v>10.24348741373798</v>
+        <v>9.163061197852864</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.35756856822533</v>
+        <v>38.86036164440969</v>
       </c>
       <c r="D52" t="n">
-        <v>10.03067950005938</v>
+        <v>10.49754751317053</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.64712285548153</v>
+        <v>39.67096209907939</v>
       </c>
       <c r="D53" t="n">
-        <v>9.734403957903313</v>
+        <v>9.348632759637235</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.75411051730044</v>
+        <v>38.14641591939267</v>
       </c>
       <c r="D54" t="n">
-        <v>10.69994278555288</v>
+        <v>10.0446423611848</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.25923419437114</v>
+        <v>37.12657045810879</v>
       </c>
       <c r="D55" t="n">
-        <v>9.557093016641602</v>
+        <v>9.664329814218149</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.2819003603007</v>
+        <v>35.76757380429115</v>
       </c>
       <c r="D56" t="n">
-        <v>10.04552315651485</v>
+        <v>9.157295566568171</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.10465926415098</v>
+        <v>34.1310326175944</v>
       </c>
       <c r="D57" t="n">
-        <v>10.48742440872382</v>
+        <v>9.282919363285544</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.2540403142003</v>
+        <v>34.47038419010116</v>
       </c>
       <c r="D58" t="n">
-        <v>9.852444680509299</v>
+        <v>10.2990904310165</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.44191140184427</v>
+        <v>31.13275104960495</v>
       </c>
       <c r="D59" t="n">
-        <v>9.838934909864181</v>
+        <v>10.65173724275424</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.11609200235539</v>
+        <v>32.41027436999749</v>
       </c>
       <c r="D60" t="n">
-        <v>10.71070849702981</v>
+        <v>9.940001417897035</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.04417802206713</v>
+        <v>29.39530789238198</v>
       </c>
       <c r="D61" t="n">
-        <v>10.84471976627626</v>
+        <v>10.52457791159985</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.81927620772556</v>
+        <v>30.26114980951287</v>
       </c>
       <c r="D62" t="n">
-        <v>10.48202503651736</v>
+        <v>10.47047061349662</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.59643986815114</v>
+        <v>30.32891481248373</v>
       </c>
       <c r="D63" t="n">
-        <v>8.615661182864798</v>
+        <v>9.922457748676546</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.88371877676723</v>
+        <v>27.82839641491396</v>
       </c>
       <c r="D64" t="n">
-        <v>10.39334530099355</v>
+        <v>9.842375735264826</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.2133791417874</v>
+        <v>26.15515414355237</v>
       </c>
       <c r="D65" t="n">
-        <v>10.64363452954953</v>
+        <v>9.77553255099658</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.46395529437</v>
+        <v>24.74950757943626</v>
       </c>
       <c r="D66" t="n">
-        <v>9.793666131681809</v>
+        <v>10.65284629335732</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.6828975549955</v>
+        <v>24.83126173284022</v>
       </c>
       <c r="D67" t="n">
-        <v>10.28856751405555</v>
+        <v>9.374917025061265</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.84158294529162</v>
+        <v>23.8904544420037</v>
       </c>
       <c r="D68" t="n">
-        <v>9.694761495894102</v>
+        <v>9.458392688508217</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.12273669412183</v>
+        <v>21.41313338869796</v>
       </c>
       <c r="D69" t="n">
-        <v>10.48419487326152</v>
+        <v>9.913038464440133</v>
       </c>
     </row>
   </sheetData>
